--- a/static/uploads/TA/Basic_Actuarial_Science/Life_Table/HW1_CL1_Answer.xlsx
+++ b/static/uploads/TA/Basic_Actuarial_Science/Life_Table/HW1_CL1_Answer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2.社会工作与助教\6. 2023-2024春季学期精算概论\Homework\Hw1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\academicblog\static\uploads\TA\Basic_Actuarial_Science\Life_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D5875-CEC7-4934-A272-CCFC5B83E00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE79C3-E99C-4424-9B0E-05ABC8140201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,97 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>庄源</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1559AA98-78C2-4272-9AFF-7176E13976B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>庄源:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-死亡率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D265D100-E107-4BB2-AFF0-77AE8632DB6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>庄源:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0岁时的生存人数已给定，为10000；
+后续年份的生存人数为当年生存人数*生存概率，或生存人数-当年死亡人数。
+无论是否取整，都给分。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1D5EC5DA-B4D2-40F5-8F0C-CC314F848317}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>庄源:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+生存人数*死亡率，或x岁生存人数-x+1岁生存人数；
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,9 +147,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +176,21 @@
       <color theme="1"/>
       <name val="Times New Roman "/>
       <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -129,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -138,9 +244,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -156,6 +262,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612467C0-E22B-9AF8-129A-008E0FFC9673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="13089"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4312921" y="243840"/>
+          <a:ext cx="1874520" cy="297687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,19 +574,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -448,7 +602,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -466,15 +620,15 @@
         <f>1-B2</f>
         <v>0.99913300000000005</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>10000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <f>D2*B2</f>
         <v>8.67</v>
       </c>
-      <c r="F2" s="4">
-        <f>SUM(D3:D$107)/D2+0.5</f>
+      <c r="F2" s="5">
+        <f>SUM(D3:D$108)/D2+0.5</f>
         <v>76.420141868706111</v>
       </c>
     </row>
@@ -489,16 +643,16 @@
         <f t="shared" ref="C3:C66" si="0">1-B3</f>
         <v>0.99938499999999997</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <f>D2*C2</f>
         <v>9991.33</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E66" si="1">D3*B3</f>
         <v>6.1446679499999997</v>
       </c>
-      <c r="F3" s="4">
-        <f>SUM(D4:D$107)/D3+0.5</f>
+      <c r="F3" s="5">
+        <f>SUM(D4:D$108)/D3+0.5</f>
         <v>75.486021749562966</v>
       </c>
     </row>
@@ -513,16 +667,16 @@
         <f t="shared" si="0"/>
         <v>0.99955499999999997</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D67" si="2">D3*C3</f>
         <v>9985.1853320499995</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <f t="shared" si="1"/>
         <v>4.4434074727622495</v>
       </c>
-      <c r="F4" s="4">
-        <f>SUM(D5:D$107)/D4+0.5</f>
+      <c r="F4" s="5">
+        <f>SUM(D5:D$108)/D4+0.5</f>
         <v>74.532166531980138</v>
       </c>
     </row>
@@ -537,16 +691,16 @@
         <f t="shared" si="0"/>
         <v>0.99966100000000002</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <f t="shared" si="2"/>
         <v>9980.7419245772362</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>3.383471512431683</v>
       </c>
-      <c r="F5" s="4">
-        <f>SUM(D6:D$107)/D5+0.5</f>
+      <c r="F5" s="5">
+        <f>SUM(D6:D$108)/D5+0.5</f>
         <v>73.565125512833362</v>
       </c>
     </row>
@@ -561,16 +715,16 @@
         <f t="shared" si="0"/>
         <v>0.99972000000000005</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <f t="shared" si="2"/>
         <v>9977.3584530648041</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>2.7936603668581448</v>
       </c>
-      <c r="F6" s="4">
-        <f>SUM(D7:D$107)/D6+0.5</f>
+      <c r="F6" s="5">
+        <f>SUM(D7:D$108)/D6+0.5</f>
         <v>72.58990298994695</v>
       </c>
     </row>
@@ -585,16 +739,16 @@
         <f t="shared" si="0"/>
         <v>0.999749</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <f t="shared" si="2"/>
         <v>9974.5647926979473</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>2.5036157629671845</v>
       </c>
-      <c r="F7" s="4">
-        <f>SUM(D8:D$107)/D7+0.5</f>
+      <c r="F7" s="5">
+        <f>SUM(D8:D$108)/D7+0.5</f>
         <v>71.610093816215496</v>
       </c>
     </row>
@@ -609,16 +763,16 @@
         <f t="shared" si="0"/>
         <v>0.99976299999999996</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <f t="shared" si="2"/>
         <v>9972.0611769349798</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>2.36337849893359</v>
       </c>
-      <c r="F8" s="4">
-        <f>SUM(D9:D$107)/D8+0.5</f>
+      <c r="F8" s="5">
+        <f>SUM(D9:D$108)/D8+0.5</f>
         <v>70.627946930895149</v>
       </c>
     </row>
@@ -633,16 +787,16 @@
         <f t="shared" si="0"/>
         <v>0.99976699999999996</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <f t="shared" si="2"/>
         <v>9969.6977984360456</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>2.3229395870355987</v>
       </c>
-      <c r="F9" s="4">
-        <f>SUM(D10:D$107)/D9+0.5</f>
+      <c r="F9" s="5">
+        <f>SUM(D10:D$108)/D9+0.5</f>
         <v>69.644571194268195</v>
       </c>
     </row>
@@ -657,16 +811,16 @@
         <f t="shared" si="0"/>
         <v>0.99976200000000004</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <f t="shared" si="2"/>
         <v>9967.3748588490089</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>2.3722352164060641</v>
       </c>
-      <c r="F10" s="4">
-        <f>SUM(D11:D$107)/D10+0.5</f>
+      <c r="F10" s="5">
+        <f>SUM(D11:D$108)/D10+0.5</f>
         <v>68.660685634020936</v>
       </c>
     </row>
@@ -681,16 +835,16 @@
         <f t="shared" si="0"/>
         <v>0.99975000000000003</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <f t="shared" si="2"/>
         <v>9965.002623632603</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>2.4912506559081509</v>
       </c>
-      <c r="F11" s="4">
-        <f>SUM(D12:D$107)/D11+0.5</f>
+      <c r="F11" s="5">
+        <f>SUM(D12:D$108)/D11+0.5</f>
         <v>67.676911739014812</v>
       </c>
     </row>
@@ -705,16 +859,16 @@
         <f t="shared" si="0"/>
         <v>0.99973100000000004</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <f t="shared" si="2"/>
         <v>9962.5113729766945</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>2.6799155593307304</v>
       </c>
-      <c r="F12" s="4">
-        <f>SUM(D13:D$107)/D12+0.5</f>
+      <c r="F12" s="5">
+        <f>SUM(D13:D$108)/D12+0.5</f>
         <v>66.693710166556457</v>
       </c>
     </row>
@@ -729,16 +883,16 @@
         <f t="shared" si="0"/>
         <v>0.99970700000000001</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <f t="shared" si="2"/>
         <v>9959.8314574173637</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>2.9182306170232879</v>
       </c>
-      <c r="F13" s="4">
-        <f>SUM(D14:D$107)/D13+0.5</f>
+      <c r="F13" s="5">
+        <f>SUM(D14:D$108)/D13+0.5</f>
         <v>65.711521065723147</v>
       </c>
     </row>
@@ -753,16 +907,16 @@
         <f t="shared" si="0"/>
         <v>0.99968100000000004</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <f t="shared" si="2"/>
         <v>9956.9132268003414</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>3.176255319349309</v>
       </c>
-      <c r="F14" s="4">
-        <f>SUM(D15:D$107)/D14+0.5</f>
+      <c r="F14" s="5">
+        <f>SUM(D15:D$108)/D14+0.5</f>
         <v>64.730633641380066</v>
       </c>
     </row>
@@ -777,16 +931,16 @@
         <f t="shared" si="0"/>
         <v>0.99965300000000001</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <f t="shared" si="2"/>
         <v>9953.736971480992</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>3.4539467291039041</v>
       </c>
-      <c r="F15" s="4">
-        <f>SUM(D16:D$107)/D15+0.5</f>
+      <c r="F15" s="5">
+        <f>SUM(D16:D$108)/D15+0.5</f>
         <v>63.75112975177089</v>
       </c>
     </row>
@@ -801,16 +955,16 @@
         <f t="shared" si="0"/>
         <v>0.99962499999999999</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <f t="shared" si="2"/>
         <v>9950.2830247518887</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>3.7313561342819583</v>
       </c>
-      <c r="F16" s="4">
-        <f>SUM(D17:D$107)/D16+0.5</f>
+      <c r="F16" s="5">
+        <f>SUM(D17:D$108)/D16+0.5</f>
         <v>62.7730855124437</v>
       </c>
     </row>
@@ -825,16 +979,16 @@
         <f t="shared" si="0"/>
         <v>0.99959799999999999</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <f t="shared" si="2"/>
         <v>9946.551668617607</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>3.9985137707842782</v>
       </c>
-      <c r="F17" s="4">
-        <f>SUM(D18:D$107)/D17+0.5</f>
+      <c r="F17" s="5">
+        <f>SUM(D18:D$108)/D17+0.5</f>
         <v>61.796446679948687</v>
       </c>
     </row>
@@ -849,16 +1003,16 @@
         <f t="shared" si="0"/>
         <v>0.99957300000000004</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <f t="shared" si="2"/>
         <v>9942.5531548468225</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
         <v>4.2454701971195936</v>
       </c>
-      <c r="F18" s="4">
-        <f>SUM(D19:D$107)/D18+0.5</f>
+      <c r="F18" s="5">
+        <f>SUM(D19:D$108)/D18+0.5</f>
         <v>60.821097761248716</v>
       </c>
     </row>
@@ -873,16 +1027,16 @@
         <f t="shared" si="0"/>
         <v>0.99955099999999997</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <f t="shared" si="2"/>
         <v>9938.3076846497042</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>4.4623001504077173</v>
       </c>
-      <c r="F19" s="4">
-        <f>SUM(D20:D$107)/D19+0.5</f>
+      <c r="F19" s="5">
+        <f>SUM(D20:D$108)/D19+0.5</f>
         <v>59.846865872976473</v>
       </c>
     </row>
@@ -897,16 +1051,16 @@
         <f t="shared" si="0"/>
         <v>0.99953099999999995</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <f t="shared" si="2"/>
         <v>9933.8453844992964</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>4.6589734853301703</v>
       </c>
-      <c r="F20" s="4">
-        <f>SUM(D21:D$107)/D20+0.5</f>
+      <c r="F20" s="5">
+        <f>SUM(D21:D$108)/D20+0.5</f>
         <v>58.873524585515369</v>
       </c>
     </row>
@@ -921,16 +1075,16 @@
         <f t="shared" si="0"/>
         <v>0.99951100000000004</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <f t="shared" si="2"/>
         <v>9929.186411013965</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>4.8553721549858286</v>
       </c>
-      <c r="F21" s="4">
-        <f>SUM(D22:D$107)/D21+0.5</f>
+      <c r="F21" s="5">
+        <f>SUM(D22:D$108)/D21+0.5</f>
         <v>57.900914614469563</v>
       </c>
     </row>
@@ -945,16 +1099,16 @@
         <f t="shared" si="0"/>
         <v>0.99949200000000005</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <f t="shared" si="2"/>
         <v>9924.3310388589798</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>5.0415601677403616</v>
       </c>
-      <c r="F22" s="4">
-        <f>SUM(D23:D$107)/D22+0.5</f>
+      <c r="F22" s="5">
+        <f>SUM(D23:D$108)/D22+0.5</f>
         <v>56.928997394195321</v>
       </c>
     </row>
@@ -969,16 +1123,16 @@
         <f t="shared" si="0"/>
         <v>0.99947299999999994</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <f t="shared" si="2"/>
         <v>9919.2894786912402</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>5.2274655552702836</v>
       </c>
-      <c r="F23" s="4">
-        <f>SUM(D24:D$107)/D23+0.5</f>
+      <c r="F23" s="5">
+        <f>SUM(D24:D$108)/D23+0.5</f>
         <v>55.957677894565755</v>
       </c>
     </row>
@@ -993,16 +1147,16 @@
         <f t="shared" si="0"/>
         <v>0.99945300000000004</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <f t="shared" si="2"/>
         <v>9914.0620131359701</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>5.4229919211853757</v>
       </c>
-      <c r="F24" s="4">
-        <f>SUM(D25:D$107)/D24+0.5</f>
+      <c r="F24" s="5">
+        <f>SUM(D25:D$108)/D24+0.5</f>
         <v>54.98691950114285</v>
       </c>
     </row>
@@ -1017,16 +1171,16 @@
         <f t="shared" si="0"/>
         <v>0.99943199999999999</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <f t="shared" si="2"/>
         <v>9908.6390212147853</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>5.6281069640499988</v>
       </c>
-      <c r="F25" s="4">
-        <f>SUM(D26:D$107)/D25+0.5</f>
+      <c r="F25" s="5">
+        <f>SUM(D26:D$108)/D25+0.5</f>
         <v>54.016740158009277</v>
       </c>
     </row>
@@ -1041,16 +1195,16 @@
         <f t="shared" si="0"/>
         <v>0.99940899999999999</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <f t="shared" si="2"/>
         <v>9903.0109142507354</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>5.8526794503221851</v>
       </c>
-      <c r="F26" s="4">
-        <f>SUM(D27:D$107)/D26+0.5</f>
+      <c r="F26" s="5">
+        <f>SUM(D27:D$108)/D26+0.5</f>
         <v>53.047154942016341</v>
       </c>
     </row>
@@ -1065,16 +1219,16 @@
         <f t="shared" si="0"/>
         <v>0.99938499999999997</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="5">
         <f t="shared" si="2"/>
         <v>9897.158234800414</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>6.0867523144022542</v>
       </c>
-      <c r="F27" s="4">
-        <f>SUM(D28:D$107)/D27+0.5</f>
+      <c r="F27" s="5">
+        <f>SUM(D28:D$108)/D27+0.5</f>
         <v>52.078228675163359</v>
       </c>
     </row>
@@ -1089,16 +1243,16 @@
         <f t="shared" si="0"/>
         <v>0.99935600000000002</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <f t="shared" si="2"/>
         <v>9891.0714824860115</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>6.3698500347209919</v>
       </c>
-      <c r="F28" s="4">
-        <f>SUM(D29:D$107)/D28+0.5</f>
+      <c r="F28" s="5">
+        <f>SUM(D29:D$108)/D28+0.5</f>
         <v>51.109968805979037</v>
       </c>
     </row>
@@ -1113,16 +1267,16 @@
         <f t="shared" si="0"/>
         <v>0.99932500000000002</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <f t="shared" si="2"/>
         <v>9884.7016324512915</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <f t="shared" si="1"/>
         <v>6.6721736019046221</v>
       </c>
-      <c r="F29" s="4">
-        <f>SUM(D30:D$107)/D29+0.5</f>
+      <c r="F29" s="5">
+        <f>SUM(D30:D$108)/D29+0.5</f>
         <v>50.142582629192233</v>
       </c>
     </row>
@@ -1137,16 +1291,16 @@
         <f t="shared" si="0"/>
         <v>0.99928899999999998</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <f t="shared" si="2"/>
         <v>9878.0294588493871</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>7.0232789452419144</v>
       </c>
-      <c r="F30" s="4">
-        <f>SUM(D31:D$107)/D30+0.5</f>
+      <c r="F30" s="5">
+        <f>SUM(D31:D$108)/D30+0.5</f>
         <v>49.176114006146385</v>
       </c>
     </row>
@@ -1161,16 +1315,16 @@
         <f t="shared" si="0"/>
         <v>0.99924900000000005</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <f t="shared" si="2"/>
         <v>9871.006179904145</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>7.4131256411080138</v>
       </c>
-      <c r="F31" s="4">
-        <f>SUM(D32:D$107)/D31+0.5</f>
+      <c r="F31" s="5">
+        <f>SUM(D32:D$108)/D31+0.5</f>
         <v>48.210747347510463</v>
       </c>
     </row>
@@ -1185,16 +1339,16 @@
         <f t="shared" si="0"/>
         <v>0.99920299999999995</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <f t="shared" si="2"/>
         <v>9863.5930542630376</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>7.8612836642476402</v>
       </c>
-      <c r="F32" s="4">
-        <f>SUM(D33:D$107)/D32+0.5</f>
+      <c r="F32" s="5">
+        <f>SUM(D33:D$108)/D32+0.5</f>
         <v>47.246605047901433</v>
       </c>
     </row>
@@ -1209,16 +1363,16 @@
         <f t="shared" si="0"/>
         <v>0.99915299999999996</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="5">
         <f t="shared" si="2"/>
         <v>9855.7317705987898</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <f t="shared" si="1"/>
         <v>8.3478048096971751</v>
       </c>
-      <c r="F33" s="4">
-        <f>SUM(D34:D$107)/D33+0.5</f>
+      <c r="F33" s="5">
+        <f>SUM(D34:D$108)/D33+0.5</f>
         <v>46.28389180967374</v>
       </c>
     </row>
@@ -1233,16 +1387,16 @@
         <f t="shared" si="0"/>
         <v>0.99909700000000001</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <f t="shared" si="2"/>
         <v>9847.3839657890931</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <f t="shared" si="1"/>
         <v>8.8921877211075522</v>
       </c>
-      <c r="F34" s="4">
-        <f>SUM(D35:D$107)/D34+0.5</f>
+      <c r="F34" s="5">
+        <f>SUM(D35:D$108)/D34+0.5</f>
         <v>45.322703639656531</v>
       </c>
     </row>
@@ -1257,16 +1411,16 @@
         <f t="shared" si="0"/>
         <v>0.99903399999999998</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <f t="shared" si="2"/>
         <v>9838.4917780679862</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <f t="shared" si="1"/>
         <v>9.5039830576136737</v>
       </c>
-      <c r="F35" s="4">
-        <f>SUM(D36:D$107)/D35+0.5</f>
+      <c r="F35" s="5">
+        <f>SUM(D36:D$108)/D35+0.5</f>
         <v>44.363215122912521</v>
       </c>
     </row>
@@ -1281,16 +1435,16 @@
         <f t="shared" si="0"/>
         <v>0.99896499999999999</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <f t="shared" si="2"/>
         <v>9828.9877950103728</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <f t="shared" si="1"/>
         <v>10.173002367835736</v>
       </c>
-      <c r="F36" s="4">
-        <f>SUM(D37:D$107)/D36+0.5</f>
+      <c r="F36" s="5">
+        <f>SUM(D37:D$108)/D36+0.5</f>
         <v>43.405627959521411</v>
       </c>
     </row>
@@ -1305,16 +1459,16 @@
         <f t="shared" si="0"/>
         <v>0.99888900000000003</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="5">
         <f t="shared" si="2"/>
         <v>9818.8147926425372</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <f t="shared" si="1"/>
         <v>10.908703234625859</v>
       </c>
-      <c r="F37" s="4">
-        <f>SUM(D38:D$107)/D37+0.5</f>
+      <c r="F37" s="5">
+        <f>SUM(D38:D$108)/D37+0.5</f>
         <v>42.450081293660354</v>
       </c>
     </row>
@@ -1329,16 +1483,16 @@
         <f t="shared" si="0"/>
         <v>0.99880400000000003</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <f t="shared" si="2"/>
         <v>9807.9060894079121</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <f t="shared" si="1"/>
         <v>11.730255682931864</v>
       </c>
-      <c r="F38" s="4">
-        <f>SUM(D39:D$107)/D38+0.5</f>
+      <c r="F38" s="5">
+        <f>SUM(D39:D$108)/D38+0.5</f>
         <v>41.496739671435321</v>
       </c>
     </row>
@@ -1353,16 +1507,16 @@
         <f t="shared" si="0"/>
         <v>0.99870999999999999</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <f t="shared" si="2"/>
         <v>9796.1758337249812</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <f t="shared" si="1"/>
         <v>12.637066825505224</v>
       </c>
-      <c r="F39" s="4">
-        <f>SUM(D40:D$107)/D39+0.5</f>
+      <c r="F39" s="5">
+        <f>SUM(D40:D$108)/D39+0.5</f>
         <v>40.545830484695003</v>
       </c>
     </row>
@@ -1377,16 +1531,16 @@
         <f t="shared" si="0"/>
         <v>0.99860499999999996</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="5">
         <f t="shared" si="2"/>
         <v>9783.5387668994754</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
         <f t="shared" si="1"/>
         <v>13.648036579824767</v>
       </c>
-      <c r="F40" s="4">
-        <f>SUM(D41:D$107)/D40+0.5</f>
+      <c r="F40" s="5">
+        <f>SUM(D41:D$108)/D40+0.5</f>
         <v>39.597556332363759</v>
       </c>
     </row>
@@ -1401,16 +1555,16 @@
         <f t="shared" si="0"/>
         <v>0.99848499999999996</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
         <f t="shared" si="2"/>
         <v>9769.8907303196502</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <f t="shared" si="1"/>
         <v>14.80138445643427</v>
       </c>
-      <c r="F41" s="4">
-        <f>SUM(D42:D$107)/D41+0.5</f>
+      <c r="F41" s="5">
+        <f>SUM(D42:D$108)/D41+0.5</f>
         <v>38.652173614556069</v>
       </c>
     </row>
@@ -1425,16 +1579,16 @@
         <f t="shared" si="0"/>
         <v>0.99834900000000004</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <f t="shared" si="2"/>
         <v>9755.0893458632163</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <f t="shared" si="1"/>
         <v>16.105652510020168</v>
       </c>
-      <c r="F42" s="4">
-        <f>SUM(D43:D$107)/D42+0.5</f>
+      <c r="F42" s="5">
+        <f>SUM(D43:D$108)/D42+0.5</f>
         <v>37.710061858271345</v>
       </c>
     </row>
@@ -1449,16 +1603,16 @@
         <f t="shared" si="0"/>
         <v>0.99819599999999997</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="5">
         <f t="shared" si="2"/>
         <v>9738.9836933531969</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
         <f t="shared" si="1"/>
         <v>17.569126582809169</v>
       </c>
-      <c r="F43" s="4">
-        <f>SUM(D44:D$107)/D43+0.5</f>
+      <c r="F43" s="5">
+        <f>SUM(D44:D$108)/D43+0.5</f>
         <v>36.771597265356434</v>
       </c>
     </row>
@@ -1473,16 +1627,16 @@
         <f t="shared" si="0"/>
         <v>0.99802199999999996</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="5">
         <f t="shared" si="2"/>
         <v>9721.414566770387</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <f t="shared" si="1"/>
         <v>19.228958013071829</v>
       </c>
-      <c r="F44" s="4">
-        <f>SUM(D45:D$107)/D44+0.5</f>
+      <c r="F44" s="5">
+        <f>SUM(D45:D$108)/D44+0.5</f>
         <v>35.837149483023808</v>
       </c>
     </row>
@@ -1497,16 +1651,16 @@
         <f t="shared" si="0"/>
         <v>0.99782700000000002</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <f t="shared" si="2"/>
         <v>9702.1856087573142</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
         <f t="shared" si="1"/>
         <v>21.082849327829646</v>
       </c>
-      <c r="F45" s="4">
-        <f>SUM(D46:D$107)/D45+0.5</f>
+      <c r="F45" s="5">
+        <f>SUM(D46:D$108)/D45+0.5</f>
         <v>34.907184894745619</v>
       </c>
     </row>
@@ -1521,16 +1675,16 @@
         <f t="shared" si="0"/>
         <v>0.99760700000000002</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <f t="shared" si="2"/>
         <v>9681.1027594294846</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <f t="shared" si="1"/>
         <v>23.166878903314757</v>
       </c>
-      <c r="F46" s="4">
-        <f>SUM(D47:D$107)/D46+0.5</f>
+      <c r="F46" s="5">
+        <f>SUM(D47:D$108)/D46+0.5</f>
         <v>33.982114529618478</v>
       </c>
     </row>
@@ -1545,16 +1699,16 @@
         <f t="shared" si="0"/>
         <v>0.99736100000000005</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <f t="shared" si="2"/>
         <v>9657.9358805261709</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <f t="shared" si="1"/>
         <v>25.487292788708565</v>
       </c>
-      <c r="F47" s="4">
-        <f>SUM(D48:D$107)/D47+0.5</f>
+      <c r="F47" s="5">
+        <f>SUM(D48:D$108)/D47+0.5</f>
         <v>33.062429423228267</v>
       </c>
     </row>
@@ -1569,16 +1723,16 @@
         <f t="shared" si="0"/>
         <v>0.99708699999999995</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="5">
         <f t="shared" si="2"/>
         <v>9632.4485877374627</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <f t="shared" si="1"/>
         <v>28.059322736079228</v>
       </c>
-      <c r="F48" s="4">
-        <f>SUM(D49:D$107)/D48+0.5</f>
+      <c r="F48" s="5">
+        <f>SUM(D49:D$108)/D48+0.5</f>
         <v>32.148589049730504</v>
       </c>
     </row>
@@ -1593,16 +1747,16 @@
         <f t="shared" si="0"/>
         <v>0.99678699999999998</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="5">
         <f t="shared" si="2"/>
         <v>9604.3892650013822</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="5">
         <f t="shared" si="1"/>
         <v>30.858902708449442</v>
       </c>
-      <c r="F49" s="4">
-        <f>SUM(D50:D$107)/D49+0.5</f>
+      <c r="F49" s="5">
+        <f>SUM(D50:D$108)/D49+0.5</f>
         <v>31.241050730508483</v>
       </c>
     </row>
@@ -1617,16 +1771,16 @@
         <f t="shared" si="0"/>
         <v>0.99646199999999996</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="5">
         <f t="shared" si="2"/>
         <v>9573.5303622929332</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="5">
         <f t="shared" si="1"/>
         <v>33.8711504217924</v>
       </c>
-      <c r="F50" s="4">
-        <f>SUM(D51:D$107)/D50+0.5</f>
+      <c r="F50" s="5">
+        <f>SUM(D51:D$108)/D50+0.5</f>
         <v>30.340140100651869</v>
       </c>
     </row>
@@ -1641,16 +1795,16 @@
         <f t="shared" si="0"/>
         <v>0.996116</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="5">
         <f t="shared" si="2"/>
         <v>9539.6592118711396</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="5">
         <f t="shared" si="1"/>
         <v>37.052036378907502</v>
       </c>
-      <c r="F51" s="4">
-        <f>SUM(D52:D$107)/D51+0.5</f>
+      <c r="F51" s="5">
+        <f>SUM(D52:D$108)/D51+0.5</f>
         <v>29.446089364824619</v>
       </c>
     </row>
@@ -1665,16 +1819,16 @@
         <f t="shared" si="0"/>
         <v>0.99575100000000005</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="5">
         <f t="shared" si="2"/>
         <v>9502.6071754922323</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="5">
         <f t="shared" si="1"/>
         <v>40.376577888666496</v>
       </c>
-      <c r="F52" s="4">
-        <f>SUM(D53:D$107)/D52+0.5</f>
+      <c r="F52" s="5">
+        <f>SUM(D53:D$108)/D52+0.5</f>
         <v>28.558954343494751</v>
       </c>
     </row>
@@ -1689,16 +1843,16 @@
         <f t="shared" si="0"/>
         <v>0.995367</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="5">
         <f t="shared" si="2"/>
         <v>9462.2305976035659</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="5">
         <f t="shared" si="1"/>
         <v>43.838514358697317</v>
       </c>
-      <c r="F53" s="4">
-        <f>SUM(D54:D$107)/D53+0.5</f>
+      <c r="F53" s="5">
+        <f>SUM(D54:D$108)/D53+0.5</f>
         <v>27.678685578517854</v>
       </c>
     </row>
@@ -1713,16 +1867,16 @@
         <f t="shared" si="0"/>
         <v>0.99496799999999996</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="5">
         <f t="shared" si="2"/>
         <v>9418.3920832448694</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="5">
         <f t="shared" si="1"/>
         <v>47.393348962888183</v>
       </c>
-      <c r="F54" s="4">
-        <f>SUM(D55:D$107)/D54+0.5</f>
+      <c r="F54" s="5">
+        <f>SUM(D55:D$108)/D54+0.5</f>
         <v>26.805190526225857</v>
       </c>
     </row>
@@ -1737,16 +1891,16 @@
         <f t="shared" si="0"/>
         <v>0.99455499999999997</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="5">
         <f t="shared" si="2"/>
         <v>9370.9987342819804</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="5">
         <f t="shared" si="1"/>
         <v>51.025088108165384</v>
       </c>
-      <c r="F55" s="4">
-        <f>SUM(D56:D$107)/D55+0.5</f>
+      <c r="F55" s="5">
+        <f>SUM(D56:D$108)/D55+0.5</f>
         <v>25.938227687951635</v>
       </c>
     </row>
@@ -1761,16 +1915,16 @@
         <f t="shared" si="0"/>
         <v>0.99413099999999999</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="5">
         <f t="shared" si="2"/>
         <v>9319.9736461738139</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="5">
         <f t="shared" si="1"/>
         <v>54.698925329394115</v>
       </c>
-      <c r="F56" s="4">
-        <f>SUM(D57:D$107)/D56+0.5</f>
+      <c r="F56" s="5">
+        <f>SUM(D57:D$108)/D56+0.5</f>
         <v>25.077497159987772</v>
       </c>
     </row>
@@ -1785,16 +1939,16 @@
         <f t="shared" si="0"/>
         <v>0.99369799999999997</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="5">
         <f t="shared" si="2"/>
         <v>9265.2747208444198</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="5">
         <f t="shared" si="1"/>
         <v>58.389761290761534</v>
       </c>
-      <c r="F57" s="4">
-        <f>SUM(D58:D$107)/D57+0.5</f>
+      <c r="F57" s="5">
+        <f>SUM(D58:D$108)/D57+0.5</f>
         <v>24.222594064552634</v>
       </c>
     </row>
@@ -1809,16 +1963,16 @@
         <f t="shared" si="0"/>
         <v>0.99325300000000005</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="5">
         <f t="shared" si="2"/>
         <v>9206.8849595536576</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="5">
         <f t="shared" si="1"/>
         <v>62.118852822108529</v>
       </c>
-      <c r="F58" s="4">
-        <f>SUM(D59:D$107)/D58+0.5</f>
+      <c r="F58" s="5">
+        <f>SUM(D59:D$108)/D58+0.5</f>
         <v>23.373041975079587</v>
       </c>
     </row>
@@ -1833,16 +1987,16 @@
         <f t="shared" si="0"/>
         <v>0.99277300000000002</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="5">
         <f t="shared" si="2"/>
         <v>9144.7661067315494</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="5">
         <f t="shared" si="1"/>
         <v>66.089224653348907</v>
       </c>
-      <c r="F59" s="4">
-        <f>SUM(D60:D$107)/D59+0.5</f>
+      <c r="F59" s="5">
+        <f>SUM(D60:D$108)/D59+0.5</f>
         <v>22.528414688986178</v>
       </c>
     </row>
@@ -1857,16 +2011,16 @@
         <f t="shared" si="0"/>
         <v>0.99222999999999995</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="5">
         <f t="shared" si="2"/>
         <v>9078.6768820781999</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="5">
         <f t="shared" si="1"/>
         <v>70.541319373747612</v>
       </c>
-      <c r="F60" s="4">
-        <f>SUM(D61:D$107)/D60+0.5</f>
+      <c r="F60" s="5">
+        <f>SUM(D61:D$108)/D60+0.5</f>
         <v>21.688772951103804</v>
       </c>
     </row>
@@ -1881,16 +2035,16 @@
         <f t="shared" si="0"/>
         <v>0.99159699999999995</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="5">
         <f t="shared" si="2"/>
         <v>9008.1355627044522</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="5">
         <f t="shared" si="1"/>
         <v>75.695363133405522</v>
       </c>
-      <c r="F61" s="4">
-        <f>SUM(D62:D$107)/D61+0.5</f>
+      <c r="F61" s="5">
+        <f>SUM(D62:D$108)/D61+0.5</f>
         <v>20.854698962038849</v>
       </c>
     </row>
@@ -1905,16 +2059,16 @@
         <f t="shared" si="0"/>
         <v>0.99083900000000003</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="5">
         <f t="shared" si="2"/>
         <v>8932.4401995710468</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="5">
         <f t="shared" si="1"/>
         <v>81.830084668270374</v>
       </c>
-      <c r="F62" s="4">
-        <f>SUM(D63:D$107)/D62+0.5</f>
+      <c r="F62" s="5">
+        <f>SUM(D63:D$108)/D62+0.5</f>
         <v>20.02718893062287</v>
       </c>
     </row>
@@ -1929,16 +2083,16 @@
         <f t="shared" si="0"/>
         <v>0.98993500000000001</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="5">
         <f t="shared" si="2"/>
         <v>8850.6101149027763</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="5">
         <f t="shared" si="1"/>
         <v>89.081390806496444</v>
       </c>
-      <c r="F63" s="4">
-        <f>SUM(D64:D$107)/D63+0.5</f>
+      <c r="F63" s="5">
+        <f>SUM(D64:D$108)/D63+0.5</f>
         <v>19.207731458514324</v>
       </c>
     </row>
@@ -1953,16 +2107,16 @@
         <f t="shared" si="0"/>
         <v>0.98887100000000006</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="5">
         <f t="shared" si="2"/>
         <v>8761.5287240962807</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="5">
         <f t="shared" si="1"/>
         <v>97.507053170467515</v>
       </c>
-      <c r="F64" s="4">
-        <f>SUM(D65:D$107)/D64+0.5</f>
+      <c r="F64" s="5">
+        <f>SUM(D65:D$108)/D64+0.5</f>
         <v>18.397939216730716</v>
       </c>
     </row>
@@ -1977,16 +2131,16 @@
         <f t="shared" si="0"/>
         <v>0.98763999999999996</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="5">
         <f t="shared" si="2"/>
         <v>8664.0216709258129</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="5">
         <f t="shared" si="1"/>
         <v>107.08730785264304</v>
       </c>
-      <c r="F65" s="4">
-        <f>SUM(D66:D$107)/D65+0.5</f>
+      <c r="F65" s="5">
+        <f>SUM(D66:D$108)/D65+0.5</f>
         <v>17.599367072884849</v>
       </c>
     </row>
@@ -2001,16 +2155,16 @@
         <f t="shared" si="0"/>
         <v>0.98622900000000002</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="5">
         <f t="shared" si="2"/>
         <v>8556.9343630731692</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="5">
         <f t="shared" si="1"/>
         <v>117.83754311388061</v>
       </c>
-      <c r="F66" s="4">
-        <f>SUM(D67:D$107)/D66+0.5</f>
+      <c r="F66" s="5">
+        <f>SUM(D67:D$108)/D66+0.5</f>
         <v>16.813360205018885</v>
       </c>
     </row>
@@ -2025,16 +2179,16 @@
         <f t="shared" ref="C67:C107" si="3">1-B67</f>
         <v>0.98462099999999997</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="5">
         <f t="shared" si="2"/>
         <v>8439.096819959288</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="5">
         <f t="shared" ref="E67:E107" si="4">D67*B67</f>
         <v>129.78486999415389</v>
       </c>
-      <c r="F67" s="4">
-        <f>SUM(D68:D$107)/D67+0.5</f>
+      <c r="F67" s="5">
+        <f>SUM(D68:D$108)/D67+0.5</f>
         <v>16.041148359071663</v>
       </c>
     </row>
@@ -2049,16 +2203,16 @@
         <f t="shared" si="3"/>
         <v>0.98278799999999999</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="5">
         <f t="shared" ref="D68:D107" si="5">D67*C67</f>
         <v>8309.3119499651348</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="5">
         <f t="shared" si="4"/>
         <v>143.01987728279991</v>
       </c>
-      <c r="F68" s="4">
-        <f>SUM(D69:D$107)/D68+0.5</f>
+      <c r="F68" s="5">
+        <f>SUM(D69:D$108)/D68+0.5</f>
         <v>15.283888784691438</v>
       </c>
     </row>
@@ -2073,16 +2227,16 @@
         <f t="shared" si="3"/>
         <v>0.98069600000000001</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="5">
         <f t="shared" si="5"/>
         <v>8166.2920726823349</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="5">
         <f t="shared" si="4"/>
         <v>157.6421021710598</v>
       </c>
-      <c r="F69" s="4">
-        <f>SUM(D70:D$107)/D69+0.5</f>
+      <c r="F69" s="5">
+        <f>SUM(D70:D$108)/D69+0.5</f>
         <v>14.542805553884904</v>
       </c>
     </row>
@@ -2097,16 +2251,16 @@
         <f t="shared" si="3"/>
         <v>0.97830899999999998</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="5">
         <f t="shared" si="5"/>
         <v>8008.6499705112756</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="5">
         <f t="shared" si="4"/>
         <v>173.71562651036007</v>
       </c>
-      <c r="F70" s="4">
-        <f>SUM(D71:D$107)/D70+0.5</f>
+      <c r="F70" s="5">
+        <f>SUM(D71:D$108)/D70+0.5</f>
         <v>13.819223851106665</v>
       </c>
     </row>
@@ -2121,16 +2275,16 @@
         <f t="shared" si="3"/>
         <v>0.97558900000000004</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="5">
         <f t="shared" si="5"/>
         <v>7834.9343440009152</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="5">
         <f t="shared" si="4"/>
         <v>191.25858227140634</v>
       </c>
-      <c r="F71" s="4">
-        <f>SUM(D72:D$107)/D71+0.5</f>
+      <c r="F71" s="5">
+        <f>SUM(D72:D$108)/D71+0.5</f>
         <v>13.114536768144488</v>
       </c>
     </row>
@@ -2145,16 +2299,16 @@
         <f t="shared" si="3"/>
         <v>0.97250499999999995</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="5">
         <f t="shared" si="5"/>
         <v>7643.6757617295088</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="5">
         <f t="shared" si="4"/>
         <v>210.16286506875284</v>
       </c>
-      <c r="F72" s="4">
-        <f>SUM(D73:D$107)/D72+0.5</f>
+      <c r="F72" s="5">
+        <f>SUM(D73:D$108)/D72+0.5</f>
         <v>12.430175276827113</v>
       </c>
     </row>
@@ -2169,16 +2323,16 @@
         <f t="shared" si="3"/>
         <v>0.96903499999999998</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="5">
         <f t="shared" si="5"/>
         <v>7433.5128966607554</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="5">
         <f t="shared" si="4"/>
         <v>230.17872684510027</v>
       </c>
-      <c r="F73" s="4">
-        <f>SUM(D74:D$107)/D73+0.5</f>
+      <c r="F73" s="5">
+        <f>SUM(D74:D$108)/D73+0.5</f>
         <v>11.767469346509388</v>
       </c>
     </row>
@@ -2193,16 +2347,16 @@
         <f t="shared" si="3"/>
         <v>0.96516800000000003</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="5">
         <f t="shared" si="5"/>
         <v>7203.3341698156546</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="5">
         <f t="shared" si="4"/>
         <v>250.9065358030189</v>
       </c>
-      <c r="F74" s="4">
-        <f>SUM(D75:D$107)/D74+0.5</f>
+      <c r="F74" s="5">
+        <f>SUM(D75:D$108)/D74+0.5</f>
         <v>11.127515359620025</v>
       </c>
     </row>
@@ -2217,16 +2371,16 @@
         <f t="shared" si="3"/>
         <v>0.96089500000000005</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="5">
         <f t="shared" si="5"/>
         <v>6952.4276340126362</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="5">
         <f t="shared" si="4"/>
         <v>271.87468262806414</v>
       </c>
-      <c r="F75" s="4">
-        <f>SUM(D76:D$107)/D75+0.5</f>
+      <c r="F75" s="5">
+        <f>SUM(D76:D$108)/D75+0.5</f>
         <v>10.511052334536604</v>
       </c>
     </row>
@@ -2241,16 +2395,16 @@
         <f t="shared" si="3"/>
         <v>0.95620400000000005</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="5">
         <f t="shared" si="5"/>
         <v>6680.5529513845722</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="5">
         <f t="shared" si="4"/>
         <v>292.58149705883875</v>
       </c>
-      <c r="F76" s="4">
-        <f>SUM(D77:D$107)/D76+0.5</f>
+      <c r="F76" s="5">
+        <f>SUM(D77:D$108)/D76+0.5</f>
         <v>9.9184664656768984</v>
       </c>
     </row>
@@ -2265,16 +2419,16 @@
         <f t="shared" si="3"/>
         <v>0.95107900000000001</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="5">
         <f t="shared" si="5"/>
         <v>6387.9714543257342</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="5">
         <f t="shared" si="4"/>
         <v>312.50595151706926</v>
       </c>
-      <c r="F77" s="4">
-        <f>SUM(D78:D$107)/D77+0.5</f>
+      <c r="F77" s="5">
+        <f>SUM(D78:D$108)/D77+0.5</f>
         <v>9.3498505190073438</v>
       </c>
     </row>
@@ -2289,16 +2443,16 @@
         <f t="shared" si="3"/>
         <v>0.94549400000000006</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="5">
         <f t="shared" si="5"/>
         <v>6075.4655028086654</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="5">
         <f t="shared" si="4"/>
         <v>331.14932269608909</v>
       </c>
-      <c r="F78" s="4">
-        <f>SUM(D79:D$107)/D78+0.5</f>
+      <c r="F78" s="5">
+        <f>SUM(D79:D$108)/D78+0.5</f>
         <v>8.8050635320592132</v>
       </c>
     </row>
@@ -2313,16 +2467,16 @@
         <f t="shared" si="3"/>
         <v>0.93941399999999997</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="5">
         <f t="shared" si="5"/>
         <v>5744.3161801125771</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="5">
         <f t="shared" si="4"/>
         <v>348.02514008830059</v>
       </c>
-      <c r="F79" s="4">
-        <f>SUM(D80:D$107)/D79+0.5</f>
+      <c r="F79" s="5">
+        <f>SUM(D80:D$108)/D79+0.5</f>
         <v>8.2838352565528837</v>
       </c>
     </row>
@@ -2337,16 +2491,16 @@
         <f t="shared" si="3"/>
         <v>0.93279800000000002</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="5">
         <f t="shared" si="5"/>
         <v>5396.2910400242763</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="5">
         <f t="shared" si="4"/>
         <v>362.64155047171141</v>
       </c>
-      <c r="F80" s="4">
-        <f>SUM(D81:D$107)/D80+0.5</f>
+      <c r="F80" s="5">
+        <f>SUM(D81:D$108)/D80+0.5</f>
         <v>7.785841233527373</v>
       </c>
     </row>
@@ -2361,16 +2515,16 @@
         <f t="shared" si="3"/>
         <v>0.92559999999999998</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="5">
         <f t="shared" si="5"/>
         <v>5033.6494895525648</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="5">
         <f t="shared" si="4"/>
         <v>374.5035220227108</v>
       </c>
-      <c r="F81" s="4">
-        <f>SUM(D82:D$107)/D81+0.5</f>
+      <c r="F81" s="5">
+        <f>SUM(D82:D$108)/D81+0.5</f>
         <v>7.3107384809223168</v>
       </c>
     </row>
@@ -2385,16 +2539,16 @@
         <f t="shared" si="3"/>
         <v>0.91778000000000004</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="5">
         <f t="shared" si="5"/>
         <v>4659.1459675298538</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="5">
         <f t="shared" si="4"/>
         <v>383.07498145030456</v>
       </c>
-      <c r="F82" s="4">
-        <f>SUM(D83:D$107)/D82+0.5</f>
+      <c r="F82" s="5">
+        <f>SUM(D83:D$108)/D82+0.5</f>
         <v>6.8581876414458876</v>
       </c>
     </row>
@@ -2409,16 +2563,16 @@
         <f t="shared" si="3"/>
         <v>0.9093</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="5">
         <f t="shared" si="5"/>
         <v>4276.0709860795496</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="5">
         <f t="shared" si="4"/>
         <v>387.83963843741515</v>
       </c>
-      <c r="F83" s="4">
-        <f>SUM(D84:D$107)/D83+0.5</f>
+      <c r="F83" s="5">
+        <f>SUM(D84:D$108)/D83+0.5</f>
         <v>6.4277905831962858</v>
       </c>
     </row>
@@ -2433,16 +2587,16 @@
         <f t="shared" si="3"/>
         <v>0.90013200000000004</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="5">
         <f t="shared" si="5"/>
         <v>3888.2313476421346</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="5">
         <f t="shared" si="4"/>
         <v>388.30988822632469</v>
       </c>
-      <c r="F84" s="4">
-        <f>SUM(D85:D$107)/D84+0.5</f>
+      <c r="F84" s="5">
+        <f>SUM(D85:D$108)/D84+0.5</f>
         <v>6.0190702553571827</v>
       </c>
     </row>
@@ -2457,16 +2611,16 @@
         <f t="shared" si="3"/>
         <v>0.89024599999999998</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="5">
         <f t="shared" si="5"/>
         <v>3499.9214594158102</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="5">
         <f t="shared" si="4"/>
         <v>384.13037985672287</v>
       </c>
-      <c r="F85" s="4">
-        <f>SUM(D86:D$107)/D85+0.5</f>
+      <c r="F85" s="5">
+        <f>SUM(D86:D$108)/D85+0.5</f>
         <v>5.6314010115818363</v>
       </c>
     </row>
@@ -2481,16 +2635,16 @@
         <f t="shared" si="3"/>
         <v>0.87961200000000006</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="5">
         <f t="shared" si="5"/>
         <v>3115.7910795590874</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="5">
         <f t="shared" si="4"/>
         <v>375.1038564859594</v>
       </c>
-      <c r="F86" s="4">
-        <f>SUM(D87:D$107)/D86+0.5</f>
+      <c r="F86" s="5">
+        <f>SUM(D87:D$108)/D86+0.5</f>
         <v>5.2640259114692318</v>
       </c>
     </row>
@@ -2505,16 +2659,16 @@
         <f t="shared" si="3"/>
         <v>0.86818300000000004</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="5">
         <f t="shared" si="5"/>
         <v>2740.6872230731283</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="5">
         <f t="shared" si="4"/>
         <v>361.26916768383052</v>
       </c>
-      <c r="F87" s="4">
-        <f>SUM(D88:D$107)/D87+0.5</f>
+      <c r="F87" s="5">
+        <f>SUM(D88:D$108)/D87+0.5</f>
         <v>4.9160537958432018</v>
       </c>
     </row>
@@ -2529,16 +2683,16 @@
         <f t="shared" si="3"/>
         <v>0.85589499999999996</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="5">
         <f t="shared" si="5"/>
         <v>2379.4180553892979</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="5">
         <f t="shared" si="4"/>
         <v>342.8860388718748</v>
       </c>
-      <c r="F88" s="4">
-        <f>SUM(D89:D$107)/D88+0.5</f>
+      <c r="F88" s="5">
+        <f>SUM(D89:D$108)/D88+0.5</f>
         <v>4.5865471862996641</v>
       </c>
     </row>
@@ -2553,16 +2707,16 @@
         <f t="shared" si="3"/>
         <v>0.84266600000000003</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="5">
         <f t="shared" si="5"/>
         <v>2036.532016517423</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="5">
         <f t="shared" si="4"/>
         <v>320.41572828675226</v>
       </c>
-      <c r="F89" s="4">
-        <f>SUM(D90:D$107)/D89+0.5</f>
+      <c r="F89" s="5">
+        <f>SUM(D90:D$108)/D89+0.5</f>
         <v>4.2745893904038041</v>
       </c>
     </row>
@@ -2577,16 +2731,16 @@
         <f t="shared" si="3"/>
         <v>0.82839099999999999</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="5">
         <f t="shared" si="5"/>
         <v>1716.1162882306708</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="5">
         <f t="shared" si="4"/>
         <v>294.50100010697719</v>
       </c>
-      <c r="F90" s="4">
-        <f>SUM(D91:D$107)/D90+0.5</f>
+      <c r="F90" s="5">
+        <f>SUM(D91:D$108)/D90+0.5</f>
         <v>3.9793422191043715</v>
       </c>
     </row>
@@ -2601,16 +2755,16 @@
         <f t="shared" si="3"/>
         <v>0.81295399999999995</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="5">
         <f t="shared" si="5"/>
         <v>1421.6152881236935</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="5">
         <f t="shared" si="4"/>
         <v>265.90745318238436</v>
       </c>
-      <c r="F91" s="4">
-        <f>SUM(D92:D$107)/D91+0.5</f>
+      <c r="F91" s="5">
+        <f>SUM(D92:D$108)/D91+0.5</f>
         <v>3.7001207390041317</v>
       </c>
     </row>
@@ -2625,16 +2779,16 @@
         <f t="shared" si="3"/>
         <v>0.79623500000000003</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="5">
         <f t="shared" si="5"/>
         <v>1155.7078349413091</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="5">
         <f t="shared" si="4"/>
         <v>235.49280698681585</v>
       </c>
-      <c r="F92" s="4">
-        <f>SUM(D93:D$107)/D92+0.5</f>
+      <c r="F92" s="5">
+        <f>SUM(D93:D$108)/D92+0.5</f>
         <v>3.4364105951925104</v>
       </c>
     </row>
@@ -2649,16 +2803,16 @@
         <f t="shared" si="3"/>
         <v>0.77812700000000001</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="5">
         <f t="shared" si="5"/>
         <v>920.21502795449328</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="5">
         <f t="shared" si="4"/>
         <v>204.17086889734728</v>
       </c>
-      <c r="F93" s="4">
-        <f>SUM(D94:D$107)/D93+0.5</f>
+      <c r="F93" s="5">
+        <f>SUM(D94:D$108)/D93+0.5</f>
         <v>3.1878692787839147</v>
       </c>
     </row>
@@ -2673,16 +2827,16 @@
         <f t="shared" si="3"/>
         <v>0.75854900000000003</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="5">
         <f t="shared" si="5"/>
         <v>716.04415905714598</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="5">
         <f t="shared" si="4"/>
         <v>172.88957824850695</v>
       </c>
-      <c r="F94" s="4">
-        <f>SUM(D95:D$107)/D94+0.5</f>
+      <c r="F94" s="5">
+        <f>SUM(D95:D$108)/D94+0.5</f>
         <v>2.95428095771502</v>
       </c>
     </row>
@@ -2697,16 +2851,16 @@
         <f t="shared" si="3"/>
         <v>0.73746099999999992</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="5">
         <f t="shared" si="5"/>
         <v>543.15458080863903</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="5">
         <f t="shared" si="4"/>
         <v>142.59926049091931</v>
       </c>
-      <c r="F95" s="4">
-        <f>SUM(D96:D$107)/D95+0.5</f>
+      <c r="F95" s="5">
+        <f>SUM(D96:D$108)/D95+0.5</f>
         <v>2.7354942893801448</v>
       </c>
     </row>
@@ -2721,16 +2875,16 @@
         <f t="shared" si="3"/>
         <v>0.71487100000000003</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="5">
         <f t="shared" si="5"/>
         <v>400.55532031771969</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="5">
         <f t="shared" si="4"/>
         <v>114.20993792687111</v>
       </c>
-      <c r="F96" s="4">
-        <f>SUM(D97:D$107)/D96+0.5</f>
+      <c r="F96" s="5">
+        <f>SUM(D97:D$108)/D96+0.5</f>
         <v>2.5313389987811492</v>
       </c>
     </row>
@@ -2745,16 +2899,16 @@
         <f t="shared" si="3"/>
         <v>0.69084000000000001</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="5">
         <f t="shared" si="5"/>
         <v>286.34538239084861</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="5">
         <f t="shared" si="4"/>
         <v>88.526538419954761</v>
       </c>
-      <c r="F97" s="4">
-        <f>SUM(D98:D$107)/D97+0.5</f>
+      <c r="F97" s="5">
+        <f>SUM(D98:D$108)/D97+0.5</f>
         <v>2.3415462353083965</v>
       </c>
     </row>
@@ -2769,16 +2923,16 @@
         <f t="shared" si="3"/>
         <v>0.66547099999999992</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="5">
         <f t="shared" si="5"/>
         <v>197.81884397089385</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="5">
         <f t="shared" si="4"/>
         <v>66.17614005473915</v>
       </c>
-      <c r="F98" s="4">
-        <f>SUM(D99:D$107)/D98+0.5</f>
+      <c r="F98" s="5">
+        <f>SUM(D99:D$108)/D98+0.5</f>
         <v>2.1656624331370455</v>
       </c>
     </row>
@@ -2793,16 +2947,16 @@
         <f t="shared" si="3"/>
         <v>0.63889899999999999</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="5">
         <f t="shared" si="5"/>
         <v>131.64270391615469</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="5">
         <f t="shared" si="4"/>
         <v>47.536312026827375</v>
       </c>
-      <c r="F99" s="4">
-        <f>SUM(D100:D$107)/D99+0.5</f>
+      <c r="F99" s="5">
+        <f>SUM(D100:D$108)/D99+0.5</f>
         <v>2.0029827492663781</v>
       </c>
     </row>
@@ -2817,16 +2971,16 @@
         <f t="shared" si="3"/>
         <v>0.61127299999999996</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="5">
         <f t="shared" si="5"/>
         <v>84.106391889327313</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="5">
         <f t="shared" si="4"/>
         <v>32.69442539996254</v>
       </c>
-      <c r="F100" s="4">
-        <f>SUM(D101:D$107)/D100+0.5</f>
+      <c r="F100" s="5">
+        <f>SUM(D101:D$108)/D100+0.5</f>
         <v>1.8524575077850771</v>
       </c>
     </row>
@@ -2841,16 +2995,16 @@
         <f t="shared" si="3"/>
         <v>0.58274300000000001</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="5">
         <f t="shared" si="5"/>
         <v>51.411966489364772</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="5">
         <f t="shared" si="4"/>
         <v>21.452002901452875</v>
       </c>
-      <c r="F101" s="4">
-        <f>SUM(D102:D$107)/D101+0.5</f>
+      <c r="F101" s="5">
+        <f>SUM(D102:D$108)/D101+0.5</f>
         <v>1.7125261671709324</v>
       </c>
     </row>
@@ -2865,16 +3019,16 @@
         <f t="shared" si="3"/>
         <v>0.55345599999999995</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="5">
         <f t="shared" si="5"/>
         <v>29.959963587911897</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="5">
         <f t="shared" si="4"/>
         <v>13.378441980400529</v>
       </c>
-      <c r="F102" s="4">
-        <f>SUM(D103:D$107)/D102+0.5</f>
+      <c r="F102" s="5">
+        <f>SUM(D103:D$108)/D102+0.5</f>
         <v>1.5807219772196872</v>
       </c>
     </row>
@@ -2889,16 +3043,16 @@
         <f t="shared" si="3"/>
         <v>0.52355299999999994</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="5">
         <f t="shared" si="5"/>
         <v>16.581521607511366</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="5">
         <f t="shared" si="4"/>
         <v>7.9002162253339678</v>
       </c>
-      <c r="F103" s="4">
-        <f>SUM(D104:D$107)/D103+0.5</f>
+      <c r="F103" s="5">
+        <f>SUM(D104:D$108)/D103+0.5</f>
         <v>1.4526791239406338</v>
       </c>
     </row>
@@ -2913,16 +3067,16 @@
         <f t="shared" si="3"/>
         <v>0.49317</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="5">
         <f t="shared" si="5"/>
         <v>8.6813053821773973</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="5">
         <f t="shared" si="4"/>
         <v>4.3999460068489702</v>
       </c>
-      <c r="F104" s="4">
-        <f>SUM(D105:D$107)/D104+0.5</f>
+      <c r="F104" s="5">
+        <f>SUM(D105:D$108)/D104+0.5</f>
         <v>1.3196421831994734</v>
       </c>
     </row>
@@ -2937,16 +3091,16 @@
         <f t="shared" si="3"/>
         <v>0.46244200000000002</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="5">
         <f t="shared" si="5"/>
         <v>4.2813593753284271</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="5">
         <f t="shared" si="4"/>
         <v>2.3014789830827986</v>
       </c>
-      <c r="F105" s="4">
-        <f>SUM(D106:D$107)/D105+0.5</f>
+      <c r="F105" s="5">
+        <f>SUM(D106:D$108)/D105+0.5</f>
         <v>1.161987110326</v>
       </c>
     </row>
@@ -2961,16 +3115,16 @@
         <f t="shared" si="3"/>
         <v>0.43150299999999997</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="5">
         <f t="shared" si="5"/>
         <v>1.9798803922456285</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="5">
         <f t="shared" si="4"/>
         <v>1.1255560633504631</v>
       </c>
-      <c r="F106" s="4">
-        <f>SUM(D107:D$107)/D106+0.5</f>
+      <c r="F106" s="5">
+        <f>SUM(D107:D$108)/D106+0.5</f>
         <v>0.93150299999999997</v>
       </c>
     </row>
@@ -2985,21 +3139,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="5">
         <f t="shared" si="5"/>
         <v>0.85432432889516541</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="5">
         <f t="shared" si="4"/>
         <v>0.85432432889516541</v>
       </c>
-      <c r="F107" s="4">
-        <f>SUM(D$107:D108)/D107+0.5</f>
-        <v>1.5</v>
+      <c r="F107" s="5">
+        <f>SUM(D108:D$108)/D107+0.5</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>